--- a/TTK_Pushups.xlsx
+++ b/TTK_Pushups.xlsx
@@ -14,42 +14,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>Theme</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Quantity_Type</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Orders_Due_By</t>
-  </si>
-  <si>
-    <t>Pick_Up_Date</t>
-  </si>
-  <si>
-    <t>Easter</t>
-  </si>
-  <si>
-    <t>Eggs and Carrots platter</t>
-  </si>
-  <si>
-    <t>PYO Easter eggs</t>
-  </si>
-  <si>
-    <t>14 cookies</t>
-  </si>
-  <si>
-    <t>3 Cookies, Palettes, &amp; Brushes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>Tribal Member</t>
+  </si>
+  <si>
+    <t>2/23</t>
+  </si>
+  <si>
+    <t>2/24</t>
+  </si>
+  <si>
+    <t>2/25</t>
+  </si>
+  <si>
+    <t>2/26</t>
+  </si>
+  <si>
+    <t>2/27</t>
+  </si>
+  <si>
+    <t>2/28</t>
+  </si>
+  <si>
+    <t>2/29</t>
+  </si>
+  <si>
+    <t>3/1</t>
+  </si>
+  <si>
+    <t>3/2</t>
+  </si>
+  <si>
+    <t>3/3</t>
+  </si>
+  <si>
+    <t>3/4</t>
+  </si>
+  <si>
+    <t>3/5</t>
+  </si>
+  <si>
+    <t>3/6</t>
+  </si>
+  <si>
+    <t>3/7</t>
+  </si>
+  <si>
+    <t>3/8</t>
+  </si>
+  <si>
+    <t>3/9</t>
+  </si>
+  <si>
+    <t>3/10</t>
+  </si>
+  <si>
+    <t>3/11</t>
+  </si>
+  <si>
+    <t>3/12</t>
+  </si>
+  <si>
+    <t>3/13</t>
+  </si>
+  <si>
+    <t>3/14</t>
+  </si>
+  <si>
+    <t>3/15</t>
+  </si>
+  <si>
+    <t>3/16</t>
+  </si>
+  <si>
+    <t>3/17</t>
+  </si>
+  <si>
+    <t>3/18</t>
+  </si>
+  <si>
+    <t>Bino</t>
+  </si>
+  <si>
+    <t>Calvin</t>
+  </si>
+  <si>
+    <t>Carter</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Kade</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Tauke</t>
+  </si>
+  <si>
+    <t>Von</t>
   </si>
 </sst>
 </file>
@@ -407,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,33 +507,862 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
+    <row r="2" spans="1:26">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+    <row r="3" spans="1:26">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TTK_Pushups.xlsx
+++ b/TTK_Pushups.xlsx
@@ -14,84 +14,258 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Tribal Member</t>
   </si>
   <si>
-    <t>2/23</t>
-  </si>
-  <si>
-    <t>2/24</t>
-  </si>
-  <si>
-    <t>2/25</t>
-  </si>
-  <si>
-    <t>2/26</t>
-  </si>
-  <si>
-    <t>2/27</t>
-  </si>
-  <si>
-    <t>2/28</t>
-  </si>
-  <si>
-    <t>2/29</t>
-  </si>
-  <si>
-    <t>3/1</t>
-  </si>
-  <si>
-    <t>3/2</t>
-  </si>
-  <si>
-    <t>3/3</t>
-  </si>
-  <si>
-    <t>3/4</t>
-  </si>
-  <si>
-    <t>3/5</t>
-  </si>
-  <si>
-    <t>3/6</t>
-  </si>
-  <si>
-    <t>3/7</t>
-  </si>
-  <si>
-    <t>3/8</t>
-  </si>
-  <si>
-    <t>3/9</t>
-  </si>
-  <si>
-    <t>3/10</t>
-  </si>
-  <si>
-    <t>3/11</t>
-  </si>
-  <si>
-    <t>3/12</t>
-  </si>
-  <si>
-    <t>3/13</t>
-  </si>
-  <si>
-    <t>3/14</t>
-  </si>
-  <si>
-    <t>3/15</t>
-  </si>
-  <si>
-    <t>3/16</t>
-  </si>
-  <si>
-    <t>3/17</t>
-  </si>
-  <si>
-    <t>3/18</t>
+    <t>3/1/2024</t>
+  </si>
+  <si>
+    <t>3/2/2024</t>
+  </si>
+  <si>
+    <t>3/3/2024</t>
+  </si>
+  <si>
+    <t>3/4/2024</t>
+  </si>
+  <si>
+    <t>3/5/2024</t>
+  </si>
+  <si>
+    <t>3/6/2024</t>
+  </si>
+  <si>
+    <t>3/7/2024</t>
+  </si>
+  <si>
+    <t>3/8/2024</t>
+  </si>
+  <si>
+    <t>3/9/2024</t>
+  </si>
+  <si>
+    <t>3/10/2024</t>
+  </si>
+  <si>
+    <t>3/11/2024</t>
+  </si>
+  <si>
+    <t>3/12/2024</t>
+  </si>
+  <si>
+    <t>3/13/2024</t>
+  </si>
+  <si>
+    <t>3/14/2024</t>
+  </si>
+  <si>
+    <t>3/15/2024</t>
+  </si>
+  <si>
+    <t>3/16/2024</t>
+  </si>
+  <si>
+    <t>3/17/2024</t>
+  </si>
+  <si>
+    <t>3/18/2024</t>
+  </si>
+  <si>
+    <t>3/19/2024</t>
+  </si>
+  <si>
+    <t>3/20/2024</t>
+  </si>
+  <si>
+    <t>3/21/2024</t>
+  </si>
+  <si>
+    <t>3/22/2024</t>
+  </si>
+  <si>
+    <t>3/23/2024</t>
+  </si>
+  <si>
+    <t>3/24/2024</t>
+  </si>
+  <si>
+    <t>3/25/2024</t>
+  </si>
+  <si>
+    <t>3/26/2024</t>
+  </si>
+  <si>
+    <t>3/27/2024</t>
+  </si>
+  <si>
+    <t>3/28/2024</t>
+  </si>
+  <si>
+    <t>3/29/2024</t>
+  </si>
+  <si>
+    <t>3/30/2024</t>
+  </si>
+  <si>
+    <t>3/31/2024</t>
+  </si>
+  <si>
+    <t>4/1/2024</t>
+  </si>
+  <si>
+    <t>4/2/2024</t>
+  </si>
+  <si>
+    <t>4/3/2024</t>
+  </si>
+  <si>
+    <t>4/4/2024</t>
+  </si>
+  <si>
+    <t>4/5/2024</t>
+  </si>
+  <si>
+    <t>4/6/2024</t>
+  </si>
+  <si>
+    <t>4/7/2024</t>
+  </si>
+  <si>
+    <t>4/8/2024</t>
+  </si>
+  <si>
+    <t>4/9/2024</t>
+  </si>
+  <si>
+    <t>4/10/2024</t>
+  </si>
+  <si>
+    <t>4/11/2024</t>
+  </si>
+  <si>
+    <t>4/12/2024</t>
+  </si>
+  <si>
+    <t>4/13/2024</t>
+  </si>
+  <si>
+    <t>4/14/2024</t>
+  </si>
+  <si>
+    <t>4/15/2024</t>
+  </si>
+  <si>
+    <t>4/16/2024</t>
+  </si>
+  <si>
+    <t>4/17/2024</t>
+  </si>
+  <si>
+    <t>4/18/2024</t>
+  </si>
+  <si>
+    <t>4/19/2024</t>
+  </si>
+  <si>
+    <t>4/20/2024</t>
+  </si>
+  <si>
+    <t>4/21/2024</t>
+  </si>
+  <si>
+    <t>4/22/2024</t>
+  </si>
+  <si>
+    <t>4/23/2024</t>
+  </si>
+  <si>
+    <t>4/24/2024</t>
+  </si>
+  <si>
+    <t>4/25/2024</t>
+  </si>
+  <si>
+    <t>4/26/2024</t>
+  </si>
+  <si>
+    <t>4/27/2024</t>
+  </si>
+  <si>
+    <t>4/28/2024</t>
+  </si>
+  <si>
+    <t>4/29/2024</t>
+  </si>
+  <si>
+    <t>4/30/2024</t>
+  </si>
+  <si>
+    <t>5/1/2024</t>
+  </si>
+  <si>
+    <t>5/2/2024</t>
+  </si>
+  <si>
+    <t>5/3/2024</t>
+  </si>
+  <si>
+    <t>5/4/2024</t>
+  </si>
+  <si>
+    <t>5/5/2024</t>
+  </si>
+  <si>
+    <t>5/6/2024</t>
+  </si>
+  <si>
+    <t>5/7/2024</t>
+  </si>
+  <si>
+    <t>5/8/2024</t>
+  </si>
+  <si>
+    <t>5/9/2024</t>
+  </si>
+  <si>
+    <t>5/10/2024</t>
+  </si>
+  <si>
+    <t>5/11/2024</t>
+  </si>
+  <si>
+    <t>5/12/2024</t>
+  </si>
+  <si>
+    <t>5/13/2024</t>
+  </si>
+  <si>
+    <t>5/14/2024</t>
+  </si>
+  <si>
+    <t>5/15/2024</t>
+  </si>
+  <si>
+    <t>5/16/2024</t>
+  </si>
+  <si>
+    <t>5/17/2024</t>
+  </si>
+  <si>
+    <t>5/18/2024</t>
+  </si>
+  <si>
+    <t>5/19/2024</t>
+  </si>
+  <si>
+    <t>5/20/2024</t>
+  </si>
+  <si>
+    <t>5/21/2024</t>
+  </si>
+  <si>
+    <t>5/22/2024</t>
   </si>
   <si>
     <t>Bino</t>
@@ -479,13 +653,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:CF11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:84">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,13 +738,187 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:84">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -582,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -591,25 +939,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -618,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -636,36 +984,210 @@
         <v>1</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+      <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="BD2">
+        <v>1</v>
+      </c>
+      <c r="BE2">
+        <v>1</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>1</v>
+      </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>1</v>
+      </c>
+      <c r="BR2">
+        <v>1</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>1</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>1</v>
+      </c>
+      <c r="CD2">
+        <v>1</v>
+      </c>
+      <c r="CE2">
+        <v>1</v>
+      </c>
+      <c r="CF2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:84">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -689,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -698,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -710,24 +1232,198 @@
         <v>1</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>1</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>1</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>1</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>1</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>1</v>
+      </c>
+      <c r="BF3">
+        <v>1</v>
+      </c>
+      <c r="BG3">
+        <v>1</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>1</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>1</v>
+      </c>
+      <c r="BP3">
+        <v>1</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>1</v>
+      </c>
+      <c r="BS3">
+        <v>1</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>1</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>1</v>
+      </c>
+      <c r="BX3">
+        <v>1</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>1</v>
+      </c>
+      <c r="CB3">
+        <v>1</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>1</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:84">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -736,28 +1432,28 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -766,13 +1462,13 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -787,51 +1483,225 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4">
+        <v>1</v>
+      </c>
+      <c r="BC4">
+        <v>1</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>1</v>
+      </c>
+      <c r="BF4">
+        <v>1</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>1</v>
+      </c>
+      <c r="BI4">
+        <v>1</v>
+      </c>
+      <c r="BJ4">
+        <v>1</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>1</v>
+      </c>
+      <c r="BM4">
+        <v>1</v>
+      </c>
+      <c r="BN4">
+        <v>1</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>1</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>1</v>
+      </c>
+      <c r="BU4">
+        <v>1</v>
+      </c>
+      <c r="BV4">
+        <v>1</v>
+      </c>
+      <c r="BW4">
+        <v>1</v>
+      </c>
+      <c r="BX4">
+        <v>1</v>
+      </c>
+      <c r="BY4">
+        <v>1</v>
+      </c>
+      <c r="BZ4">
+        <v>1</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:84">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -840,22 +1710,22 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -876,27 +1746,201 @@
         <v>1</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <v>1</v>
       </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>1</v>
+      </c>
+      <c r="AZ5">
+        <v>1</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>1</v>
+      </c>
+      <c r="BC5">
+        <v>1</v>
+      </c>
+      <c r="BD5">
+        <v>1</v>
+      </c>
+      <c r="BE5">
+        <v>1</v>
+      </c>
+      <c r="BF5">
+        <v>1</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>1</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>1</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>1</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>1</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>1</v>
+      </c>
+      <c r="CA5">
+        <v>1</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>1</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:84">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -914,31 +1958,31 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -947,13 +1991,13 @@
         <v>1</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -962,21 +2006,195 @@
         <v>0</v>
       </c>
       <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>1</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>1</v>
+      </c>
+      <c r="BC6">
+        <v>1</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>1</v>
+      </c>
+      <c r="BH6">
+        <v>1</v>
+      </c>
+      <c r="BI6">
+        <v>1</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>1</v>
+      </c>
+      <c r="BM6">
+        <v>1</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>1</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>1</v>
+      </c>
+      <c r="BX6">
+        <v>1</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>1</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>1</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>1</v>
+      </c>
+      <c r="CF6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:84">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -985,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -997,10 +2215,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -1015,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -1030,33 +2248,207 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>1</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>1</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>1</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>1</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>1</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>1</v>
+      </c>
+      <c r="BM7">
+        <v>1</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>1</v>
+      </c>
+      <c r="BP7">
+        <v>1</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>1</v>
+      </c>
+      <c r="BT7">
+        <v>1</v>
+      </c>
+      <c r="BU7">
+        <v>1</v>
+      </c>
+      <c r="BV7">
+        <v>1</v>
+      </c>
+      <c r="BW7">
+        <v>1</v>
+      </c>
+      <c r="BX7">
+        <v>1</v>
+      </c>
+      <c r="BY7">
+        <v>1</v>
+      </c>
+      <c r="BZ7">
+        <v>1</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>1</v>
+      </c>
+      <c r="CC7">
+        <v>1</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>1</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:84">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1071,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1083,13 +2475,13 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1104,16 +2496,16 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1122,36 +2514,210 @@
         <v>1</v>
       </c>
       <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8">
+        <v>1</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>1</v>
+      </c>
+      <c r="BC8">
+        <v>1</v>
+      </c>
+      <c r="BD8">
+        <v>1</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>1</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>1</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>1</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>1</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>1</v>
+      </c>
+      <c r="BQ8">
+        <v>1</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>1</v>
+      </c>
+      <c r="BW8">
+        <v>1</v>
+      </c>
+      <c r="BX8">
+        <v>1</v>
+      </c>
+      <c r="BY8">
+        <v>1</v>
+      </c>
+      <c r="BZ8">
+        <v>1</v>
+      </c>
+      <c r="CA8">
+        <v>1</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>1</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:84">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1163,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1175,16 +2741,16 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1199,21 +2765,195 @@
         <v>1</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <v>1</v>
       </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>1</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>1</v>
+      </c>
+      <c r="AX9">
+        <v>1</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>1</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>1</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>1</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>1</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>1</v>
+      </c>
+      <c r="BO9">
+        <v>1</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>1</v>
+      </c>
+      <c r="BS9">
+        <v>1</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>1</v>
+      </c>
+      <c r="BW9">
+        <v>1</v>
+      </c>
+      <c r="BX9">
+        <v>1</v>
+      </c>
+      <c r="BY9">
+        <v>1</v>
+      </c>
+      <c r="BZ9">
+        <v>1</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>1</v>
+      </c>
+      <c r="CC9">
+        <v>1</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>1</v>
+      </c>
+      <c r="CF9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:84">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1234,10 +2974,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1246,19 +2986,19 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>1</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -1270,36 +3010,210 @@
         <v>1</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>1</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>1</v>
+      </c>
+      <c r="BA10">
+        <v>1</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>1</v>
+      </c>
+      <c r="BD10">
+        <v>1</v>
+      </c>
+      <c r="BE10">
+        <v>1</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>1</v>
+      </c>
+      <c r="BH10">
+        <v>1</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>1</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>1</v>
+      </c>
+      <c r="BO10">
+        <v>1</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>1</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>1</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>1</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10">
+        <v>0</v>
+      </c>
+      <c r="BZ10">
+        <v>1</v>
+      </c>
+      <c r="CA10">
+        <v>1</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>1</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:84">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1308,10 +3222,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1320,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1329,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1362,6 +3276,180 @@
         <v>0</v>
       </c>
       <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11">
+        <v>1</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>1</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>1</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>1</v>
+      </c>
+      <c r="BH11">
+        <v>1</v>
+      </c>
+      <c r="BI11">
+        <v>1</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>1</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>1</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>1</v>
+      </c>
+      <c r="BU11">
+        <v>1</v>
+      </c>
+      <c r="BV11">
+        <v>1</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>1</v>
+      </c>
+      <c r="BY11">
+        <v>0</v>
+      </c>
+      <c r="BZ11">
+        <v>1</v>
+      </c>
+      <c r="CA11">
+        <v>1</v>
+      </c>
+      <c r="CB11">
+        <v>1</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11">
+        <v>0</v>
+      </c>
+      <c r="CE11">
+        <v>1</v>
+      </c>
+      <c r="CF11">
         <v>1</v>
       </c>
     </row>

--- a/TTK_Pushups.xlsx
+++ b/TTK_Pushups.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Tribal Member</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>Parker</t>
+  </si>
+  <si>
+    <t>Petey</t>
   </si>
   <si>
     <t>Ryan</t>
@@ -653,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CF11"/>
+  <dimension ref="A1:CF12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -918,7 +921,7 @@
         <v>84</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -927,49 +930,49 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -981,34 +984,34 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2">
         <v>1</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2">
         <v>1</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2">
         <v>1</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -1017,34 +1020,34 @@
         <v>1</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS2">
         <v>1</v>
@@ -1053,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW2">
         <v>1</v>
@@ -1068,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="AZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2">
         <v>1</v>
       </c>
       <c r="BB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE2">
         <v>1</v>
@@ -1089,25 +1092,25 @@
         <v>0</v>
       </c>
       <c r="BG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH2">
         <v>0</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL2">
         <v>1</v>
       </c>
       <c r="BM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN2">
         <v>0</v>
@@ -1116,34 +1119,34 @@
         <v>0</v>
       </c>
       <c r="BP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS2">
         <v>0</v>
       </c>
       <c r="BT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX2">
         <v>0</v>
       </c>
       <c r="BY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ2">
         <v>0</v>
@@ -1152,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="CB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC2">
         <v>1</v>
       </c>
       <c r="CD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF2">
         <v>0</v>
@@ -1193,13 +1196,13 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1214,13 +1217,13 @@
         <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -1238,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1247,10 +1250,10 @@
         <v>1</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1262,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3">
         <v>1</v>
@@ -1274,46 +1277,46 @@
         <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3">
         <v>1</v>
       </c>
       <c r="AL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>1</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3">
         <v>1</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -1328,19 +1331,19 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD3">
         <v>0</v>
       </c>
       <c r="BE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3">
         <v>1</v>
@@ -1352,10 +1355,10 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3">
         <v>0</v>
@@ -1376,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="BR3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3">
         <v>1</v>
@@ -1388,31 +1391,31 @@
         <v>1</v>
       </c>
       <c r="BV3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW3">
         <v>1</v>
       </c>
       <c r="BX3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA3">
         <v>1</v>
       </c>
       <c r="CB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
       <c r="CD3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE3">
         <v>0</v>
@@ -1426,31 +1429,31 @@
         <v>86</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1462,10 +1465,10 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1480,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1495,19 +1498,19 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4">
         <v>1</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>1</v>
@@ -1516,13 +1519,13 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1534,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4">
         <v>1</v>
@@ -1543,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1558,13 +1561,13 @@
         <v>1</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4">
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW4">
         <v>0</v>
@@ -1573,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4">
         <v>0</v>
@@ -1582,22 +1585,22 @@
         <v>1</v>
       </c>
       <c r="BB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4">
         <v>1</v>
       </c>
       <c r="BF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH4">
         <v>1</v>
@@ -1606,28 +1609,28 @@
         <v>1</v>
       </c>
       <c r="BJ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK4">
         <v>0</v>
       </c>
       <c r="BL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP4">
         <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR4">
         <v>1</v>
@@ -1636,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="BT4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU4">
         <v>1</v>
@@ -1648,13 +1651,13 @@
         <v>1</v>
       </c>
       <c r="BX4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA4">
         <v>0</v>
@@ -1683,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1707,49 +1710,49 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <v>1</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>1</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>1</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -1758,43 +1761,43 @@
         <v>1</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>1</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5">
         <v>1</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5">
         <v>1</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1803,25 +1806,25 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5">
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5">
         <v>0</v>
       </c>
       <c r="AW5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX5">
         <v>1</v>
@@ -1833,10 +1836,10 @@
         <v>1</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC5">
         <v>1</v>
@@ -1848,28 +1851,28 @@
         <v>1</v>
       </c>
       <c r="BF5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5">
         <v>0</v>
       </c>
       <c r="BH5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI5">
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL5">
         <v>0</v>
       </c>
       <c r="BM5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN5">
         <v>1</v>
@@ -1878,55 +1881,55 @@
         <v>0</v>
       </c>
       <c r="BP5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU5">
         <v>0</v>
       </c>
       <c r="BV5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW5">
         <v>0</v>
       </c>
       <c r="BX5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ5">
         <v>1</v>
       </c>
       <c r="CA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:84">
@@ -1940,49 +1943,49 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1994,10 +1997,10 @@
         <v>1</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -2006,13 +2009,13 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>1</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -2030,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>1</v>
@@ -2039,25 +2042,25 @@
         <v>1</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2066,22 +2069,22 @@
         <v>0</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV6">
         <v>1</v>
       </c>
       <c r="AW6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
         <v>0</v>
@@ -2096,25 +2099,25 @@
         <v>1</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6">
         <v>0</v>
       </c>
       <c r="BF6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK6">
         <v>0</v>
@@ -2129,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="BO6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP6">
         <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR6">
         <v>0</v>
@@ -2147,37 +2150,37 @@
         <v>0</v>
       </c>
       <c r="BU6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ6">
         <v>1</v>
       </c>
       <c r="CA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB6">
         <v>1</v>
       </c>
       <c r="CC6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD6">
         <v>0</v>
       </c>
       <c r="CE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF6">
         <v>0</v>
@@ -2188,7 +2191,7 @@
         <v>89</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2197,10 +2200,10 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2209,13 +2212,13 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -2224,10 +2227,10 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -2239,31 +2242,31 @@
         <v>1</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>1</v>
@@ -2272,25 +2275,25 @@
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7">
         <v>1</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7">
         <v>0</v>
@@ -2302,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7">
         <v>1</v>
@@ -2311,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7">
         <v>1</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7">
         <v>0</v>
@@ -2326,13 +2329,13 @@
         <v>1</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW7">
         <v>0</v>
       </c>
       <c r="AX7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7">
         <v>0</v>
@@ -2341,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7">
         <v>0</v>
@@ -2350,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7">
         <v>1</v>
@@ -2359,16 +2362,16 @@
         <v>0</v>
       </c>
       <c r="BG7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK7">
         <v>0</v>
@@ -2386,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="BP7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ7">
         <v>0</v>
@@ -2395,13 +2398,13 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7">
         <v>1</v>
       </c>
       <c r="BU7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV7">
         <v>1</v>
@@ -2410,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="BX7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY7">
         <v>1</v>
@@ -2419,19 +2422,19 @@
         <v>1</v>
       </c>
       <c r="CA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB7">
         <v>1</v>
       </c>
       <c r="CC7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF7">
         <v>0</v>
@@ -2442,7 +2445,7 @@
         <v>90</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2454,46 +2457,46 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -2502,28 +2505,28 @@
         <v>1</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -2532,34 +2535,34 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
         <v>1</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8">
         <v>0</v>
@@ -2574,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV8">
         <v>0</v>
@@ -2592,10 +2595,10 @@
         <v>1</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8">
         <v>1</v>
@@ -2607,13 +2610,13 @@
         <v>1</v>
       </c>
       <c r="BE8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH8">
         <v>0</v>
@@ -2622,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="BJ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK8">
         <v>1</v>
@@ -2631,13 +2634,13 @@
         <v>0</v>
       </c>
       <c r="BM8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP8">
         <v>1</v>
@@ -2646,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="BR8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS8">
         <v>0</v>
@@ -2658,10 +2661,10 @@
         <v>0</v>
       </c>
       <c r="BV8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX8">
         <v>1</v>
@@ -2676,19 +2679,19 @@
         <v>1</v>
       </c>
       <c r="CB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:84">
@@ -2696,7 +2699,7 @@
         <v>91</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2708,31 +2711,31 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -2744,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -2753,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -2765,13 +2768,13 @@
         <v>1</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
         <v>1</v>
@@ -2780,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -2792,19 +2795,19 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9">
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9">
         <v>1</v>
@@ -2813,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2828,34 +2831,34 @@
         <v>1</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW9">
         <v>1</v>
       </c>
       <c r="AX9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9">
         <v>0</v>
       </c>
       <c r="AZ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB9">
         <v>0</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD9">
         <v>0</v>
@@ -2867,13 +2870,13 @@
         <v>0</v>
       </c>
       <c r="BG9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ9">
         <v>0</v>
@@ -2888,34 +2891,34 @@
         <v>0</v>
       </c>
       <c r="BN9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO9">
         <v>1</v>
       </c>
       <c r="BP9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS9">
         <v>1</v>
       </c>
       <c r="BT9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX9">
         <v>1</v>
@@ -2930,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="CB9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC9">
         <v>1</v>
       </c>
       <c r="CD9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE9">
         <v>1</v>
@@ -2959,10 +2962,10 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2977,10 +2980,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -2989,19 +2992,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>1</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -3016,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>1</v>
@@ -3025,25 +3028,25 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
         <v>1</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
         <v>1</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -3067,22 +3070,22 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3091,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="AW10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX10">
         <v>0</v>
@@ -3100,25 +3103,25 @@
         <v>0</v>
       </c>
       <c r="AZ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10">
         <v>1</v>
       </c>
       <c r="BB10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG10">
         <v>1</v>
@@ -3127,34 +3130,34 @@
         <v>1</v>
       </c>
       <c r="BI10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ10">
         <v>1</v>
       </c>
       <c r="BK10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM10">
         <v>0</v>
       </c>
       <c r="BN10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS10">
         <v>0</v>
@@ -3163,22 +3166,22 @@
         <v>1</v>
       </c>
       <c r="BU10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW10">
         <v>0</v>
       </c>
       <c r="BX10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY10">
         <v>0</v>
       </c>
       <c r="BZ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA10">
         <v>1</v>
@@ -3187,16 +3190,16 @@
         <v>0</v>
       </c>
       <c r="CC10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:84">
@@ -3204,7 +3207,7 @@
         <v>93</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3222,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -3234,22 +3237,22 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -3258,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>1</v>
@@ -3270,13 +3273,13 @@
         <v>1</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -3285,22 +3288,22 @@
         <v>1</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>1</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11">
         <v>1</v>
@@ -3312,13 +3315,13 @@
         <v>1</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11">
         <v>1</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
         <v>1</v>
@@ -3333,31 +3336,31 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW11">
         <v>0</v>
       </c>
       <c r="AX11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB11">
         <v>1</v>
@@ -3381,16 +3384,16 @@
         <v>1</v>
       </c>
       <c r="BI11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ11">
         <v>0</v>
       </c>
       <c r="BK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM11">
         <v>0</v>
@@ -3402,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="BP11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS11">
         <v>0</v>
@@ -3417,19 +3420,19 @@
         <v>1</v>
       </c>
       <c r="BU11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV11">
         <v>1</v>
       </c>
       <c r="BW11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX11">
         <v>1</v>
       </c>
       <c r="BY11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ11">
         <v>1</v>
@@ -3444,12 +3447,266 @@
         <v>0</v>
       </c>
       <c r="CD11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:84">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AS12">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>1</v>
+      </c>
+      <c r="AV12">
+        <v>1</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>1</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>1</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>1</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>1</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>1</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>1</v>
+      </c>
+      <c r="BN12">
+        <v>1</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>1</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12">
+        <v>0</v>
+      </c>
+      <c r="BS12">
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
+        <v>1</v>
+      </c>
+      <c r="BV12">
+        <v>0</v>
+      </c>
+      <c r="BW12">
+        <v>1</v>
+      </c>
+      <c r="BX12">
+        <v>0</v>
+      </c>
+      <c r="BY12">
+        <v>0</v>
+      </c>
+      <c r="BZ12">
+        <v>1</v>
+      </c>
+      <c r="CA12">
+        <v>1</v>
+      </c>
+      <c r="CB12">
+        <v>0</v>
+      </c>
+      <c r="CC12">
+        <v>0</v>
+      </c>
+      <c r="CD12">
+        <v>0</v>
+      </c>
+      <c r="CE12">
+        <v>0</v>
+      </c>
+      <c r="CF12">
         <v>1</v>
       </c>
     </row>

--- a/TTK_Pushups.xlsx
+++ b/TTK_Pushups.xlsx
@@ -921,10 +921,10 @@
         <v>84</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -933,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -963,10 +963,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -975,10 +975,10 @@
         <v>1</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2">
         <v>1</v>
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>1</v>
@@ -999,13 +999,13 @@
         <v>1</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>1</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -1014,16 +1014,16 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH2">
         <v>1</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2">
         <v>1</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN2">
         <v>1</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="AW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2">
         <v>0</v>
       </c>
       <c r="BA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2">
         <v>0</v>
@@ -1083,31 +1083,31 @@
         <v>0</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF2">
         <v>0</v>
       </c>
       <c r="BG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM2">
         <v>0</v>
@@ -1122,10 +1122,10 @@
         <v>1</v>
       </c>
       <c r="BQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS2">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>1</v>
       </c>
       <c r="BU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY2">
         <v>1</v>
       </c>
       <c r="BZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA2">
         <v>0</v>
@@ -1161,13 +1161,13 @@
         <v>1</v>
       </c>
       <c r="CD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE2">
         <v>0</v>
       </c>
       <c r="CF2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:84">
@@ -1175,7 +1175,7 @@
         <v>85</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1208,13 +1208,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -1229,19 +1229,19 @@
         <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>1</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>1</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>1</v>
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -1289,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3">
         <v>1</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1304,13 +1304,13 @@
         <v>1</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3">
         <v>1</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV3">
         <v>1</v>
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3">
         <v>1</v>
@@ -1334,40 +1334,40 @@
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3">
         <v>0</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3">
         <v>0</v>
       </c>
       <c r="BG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ3">
         <v>1</v>
       </c>
       <c r="BK3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO3">
         <v>1</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="BU3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV3">
         <v>1</v>
@@ -1400,13 +1400,13 @@
         <v>0</v>
       </c>
       <c r="BY3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
         <v>1</v>
       </c>
       <c r="CA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB3">
         <v>0</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="CD3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF3">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1447,25 +1447,25 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1501,19 +1501,19 @@
         <v>1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>1</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>1</v>
@@ -1537,70 +1537,70 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4">
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW4">
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4">
         <v>0</v>
       </c>
       <c r="BG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH4">
         <v>1</v>
@@ -1609,19 +1609,19 @@
         <v>1</v>
       </c>
       <c r="BJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK4">
         <v>0</v>
       </c>
       <c r="BL4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM4">
         <v>0</v>
       </c>
       <c r="BN4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO4">
         <v>1</v>
@@ -1633,19 +1633,19 @@
         <v>1</v>
       </c>
       <c r="BR4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS4">
         <v>0</v>
       </c>
       <c r="BT4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW4">
         <v>1</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="BY4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE4">
         <v>0</v>
       </c>
       <c r="CF4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:84">
@@ -1683,10 +1683,10 @@
         <v>87</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1695,34 +1695,34 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -1740,13 +1740,13 @@
         <v>1</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <v>1</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>1</v>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -1776,46 +1776,46 @@
         <v>1</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <v>1</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5">
         <v>1</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5">
         <v>1</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX5">
         <v>1</v>
       </c>
       <c r="AY5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
         <v>1</v>
@@ -1842,22 +1842,22 @@
         <v>0</v>
       </c>
       <c r="BC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5">
         <v>1</v>
       </c>
       <c r="BE5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5">
         <v>0</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI5">
         <v>0</v>
@@ -1869,16 +1869,16 @@
         <v>1</v>
       </c>
       <c r="BL5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN5">
         <v>1</v>
       </c>
       <c r="BO5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP5">
         <v>1</v>
@@ -1896,31 +1896,31 @@
         <v>1</v>
       </c>
       <c r="BU5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY5">
         <v>1</v>
       </c>
       <c r="BZ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD5">
         <v>0</v>
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="CF5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:84">
@@ -1937,7 +1937,7 @@
         <v>88</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1946,19 +1946,19 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1967,22 +1967,22 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -2003,43 +2003,43 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
         <v>1</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6">
         <v>1</v>
@@ -2048,37 +2048,37 @@
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6">
         <v>1</v>
       </c>
       <c r="AV6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX6">
         <v>1</v>
@@ -2102,19 +2102,19 @@
         <v>1</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ6">
         <v>1</v>
@@ -2123,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="BL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM6">
         <v>1</v>
       </c>
       <c r="BN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO6">
         <v>0</v>
@@ -2147,40 +2147,40 @@
         <v>0</v>
       </c>
       <c r="BT6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU6">
         <v>1</v>
       </c>
       <c r="BV6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX6">
         <v>0</v>
       </c>
       <c r="BY6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
         <v>1</v>
       </c>
       <c r="CA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD6">
         <v>0</v>
       </c>
       <c r="CE6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF6">
         <v>0</v>
@@ -2194,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2206,16 +2206,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2224,73 +2224,73 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <v>1</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7">
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
@@ -2314,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7">
         <v>0</v>
@@ -2332,22 +2332,22 @@
         <v>1</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7">
         <v>1</v>
       </c>
       <c r="BA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7">
         <v>1</v>
@@ -2356,10 +2356,10 @@
         <v>1</v>
       </c>
       <c r="BE7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG7">
         <v>1</v>
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="BK7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM7">
         <v>1</v>
@@ -2395,25 +2395,25 @@
         <v>0</v>
       </c>
       <c r="BR7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU7">
         <v>0</v>
       </c>
       <c r="BV7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY7">
         <v>1</v>
@@ -2431,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="CD7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF7">
         <v>0</v>
@@ -2445,13 +2445,13 @@
         <v>90</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2463,40 +2463,40 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>1</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -2505,13 +2505,13 @@
         <v>1</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -2520,34 +2520,34 @@
         <v>1</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
         <v>1</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8">
         <v>1</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8">
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8">
         <v>1</v>
@@ -2556,34 +2556,34 @@
         <v>1</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8">
         <v>0</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR8">
         <v>1</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>0</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW8">
         <v>0</v>
@@ -2592,40 +2592,40 @@
         <v>1</v>
       </c>
       <c r="AY8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8">
         <v>1</v>
       </c>
       <c r="BA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8">
         <v>1</v>
       </c>
       <c r="BC8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8">
         <v>1</v>
       </c>
       <c r="BE8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8">
         <v>1</v>
       </c>
       <c r="BG8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK8">
         <v>1</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="BM8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN8">
         <v>1</v>
@@ -2646,13 +2646,13 @@
         <v>1</v>
       </c>
       <c r="BQ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR8">
         <v>1</v>
       </c>
       <c r="BS8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>1</v>
       </c>
       <c r="BZ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB8">
         <v>1</v>
       </c>
       <c r="CC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD8">
         <v>1</v>
       </c>
       <c r="CE8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF8">
         <v>0</v>
@@ -2708,10 +2708,10 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -2735,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -2750,10 +2750,10 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <v>1</v>
@@ -2762,10 +2762,10 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -2774,49 +2774,49 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9">
         <v>1</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9">
         <v>1</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
         <v>0</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9">
         <v>1</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9">
         <v>1</v>
@@ -2828,16 +2828,16 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9">
         <v>1</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW9">
         <v>1</v>
@@ -2849,16 +2849,16 @@
         <v>0</v>
       </c>
       <c r="AZ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9">
         <v>0</v>
       </c>
       <c r="BC9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD9">
         <v>0</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="BF9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG9">
         <v>0</v>
@@ -2882,16 +2882,16 @@
         <v>0</v>
       </c>
       <c r="BK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL9">
         <v>0</v>
       </c>
       <c r="BM9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO9">
         <v>1</v>
@@ -2900,22 +2900,22 @@
         <v>1</v>
       </c>
       <c r="BQ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW9">
         <v>0</v>
@@ -2924,28 +2924,28 @@
         <v>1</v>
       </c>
       <c r="BY9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA9">
         <v>0</v>
       </c>
       <c r="CB9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC9">
         <v>1</v>
       </c>
       <c r="CD9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE9">
         <v>1</v>
       </c>
       <c r="CF9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:84">
@@ -2962,28 +2962,28 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -3004,43 +3004,43 @@
         <v>1</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>1</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -3049,10 +3049,10 @@
         <v>1</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
         <v>1</v>
@@ -3067,10 +3067,10 @@
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10">
         <v>0</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX10">
         <v>0</v>
@@ -3115,13 +3115,13 @@
         <v>0</v>
       </c>
       <c r="BD10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10">
         <v>0</v>
       </c>
       <c r="BF10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG10">
         <v>1</v>
@@ -3133,22 +3133,22 @@
         <v>1</v>
       </c>
       <c r="BJ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL10">
         <v>1</v>
       </c>
       <c r="BM10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN10">
         <v>0</v>
       </c>
       <c r="BO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP10">
         <v>1</v>
@@ -3157,10 +3157,10 @@
         <v>0</v>
       </c>
       <c r="BR10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT10">
         <v>1</v>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="BW10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX10">
         <v>1</v>
@@ -3190,13 +3190,13 @@
         <v>0</v>
       </c>
       <c r="CC10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD10">
         <v>1</v>
       </c>
       <c r="CE10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF10">
         <v>0</v>
@@ -3210,34 +3210,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -3249,28 +3249,28 @@
         <v>1</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11">
         <v>1</v>
@@ -3279,40 +3279,40 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
         <v>1</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI11">
         <v>1</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>1</v>
@@ -3342,16 +3342,16 @@
         <v>1</v>
       </c>
       <c r="AU11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11">
         <v>0</v>
@@ -3366,13 +3366,13 @@
         <v>1</v>
       </c>
       <c r="BC11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11">
         <v>1</v>
       </c>
       <c r="BE11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK11">
         <v>0</v>
@@ -3396,37 +3396,37 @@
         <v>1</v>
       </c>
       <c r="BM11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN11">
         <v>0</v>
       </c>
       <c r="BO11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR11">
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX11">
         <v>1</v>
@@ -3435,22 +3435,22 @@
         <v>1</v>
       </c>
       <c r="BZ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB11">
         <v>1</v>
       </c>
       <c r="CC11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF11">
         <v>1</v>
@@ -3461,7 +3461,7 @@
         <v>94</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -3470,40 +3470,40 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -3515,10 +3515,10 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -3527,94 +3527,94 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12">
         <v>1</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12">
         <v>1</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12">
         <v>1</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM12">
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR12">
         <v>1</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW12">
         <v>0</v>
       </c>
       <c r="AX12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12">
         <v>1</v>
       </c>
       <c r="BA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12">
         <v>0</v>
@@ -3635,40 +3635,40 @@
         <v>0</v>
       </c>
       <c r="BH12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK12">
         <v>1</v>
       </c>
       <c r="BL12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN12">
         <v>1</v>
       </c>
       <c r="BO12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR12">
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT12">
         <v>0</v>
@@ -3677,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="BV12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW12">
         <v>1</v>
@@ -3692,10 +3692,10 @@
         <v>1</v>
       </c>
       <c r="CA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC12">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="CE12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF12">
         <v>1</v>
